--- a/data/pca/factorExposure/factorExposure_2011-03-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-03-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.006870581792355539</v>
+        <v>0.01372681330436704</v>
       </c>
       <c r="C2">
-        <v>0.003439760347218205</v>
+        <v>-0.001477728909788415</v>
       </c>
       <c r="D2">
-        <v>-0.03020333650257673</v>
+        <v>-0.007693515132311025</v>
       </c>
       <c r="E2">
-        <v>0.001447287505609537</v>
+        <v>-0.0165348783473823</v>
       </c>
       <c r="F2">
-        <v>-0.002313558918684839</v>
+        <v>0.01891744570137325</v>
       </c>
       <c r="G2">
-        <v>0.02143493784156023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.005097627520573562</v>
+      </c>
+      <c r="H2">
+        <v>-0.006816855552922791</v>
+      </c>
+      <c r="I2">
+        <v>-0.02746154238517927</v>
+      </c>
+      <c r="J2">
+        <v>-0.05843477153713107</v>
+      </c>
+      <c r="K2">
+        <v>-0.02405413562311787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.1052632701857727</v>
+        <v>0.1176348824508121</v>
       </c>
       <c r="C4">
-        <v>0.02645220372923207</v>
+        <v>0.0559647728979252</v>
       </c>
       <c r="D4">
-        <v>-0.04520577679824703</v>
+        <v>0.001899404088210747</v>
       </c>
       <c r="E4">
-        <v>-0.05315737280171608</v>
+        <v>-0.009494012271055514</v>
       </c>
       <c r="F4">
-        <v>-0.04281718455132239</v>
+        <v>0.01674911831922258</v>
       </c>
       <c r="G4">
-        <v>0.02681809912334124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.06913691472302717</v>
+      </c>
+      <c r="H4">
+        <v>-0.1395392005782047</v>
+      </c>
+      <c r="I4">
+        <v>-0.03007575775569137</v>
+      </c>
+      <c r="J4">
+        <v>0.04542792275234912</v>
+      </c>
+      <c r="K4">
+        <v>-0.01042633798339467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1259773792612866</v>
+        <v>0.12299422393348</v>
       </c>
       <c r="C6">
-        <v>0.03057534720388951</v>
+        <v>0.007097678899192393</v>
       </c>
       <c r="D6">
-        <v>-0.02742019051352211</v>
+        <v>-0.004488728934656835</v>
       </c>
       <c r="E6">
-        <v>-0.005062209417541878</v>
+        <v>0.0269880534426954</v>
       </c>
       <c r="F6">
-        <v>0.1714865507623484</v>
+        <v>0.007556820906416776</v>
       </c>
       <c r="G6">
-        <v>-0.1159530336525148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0571255179740553</v>
+      </c>
+      <c r="H6">
+        <v>-0.0323224447565893</v>
+      </c>
+      <c r="I6">
+        <v>0.1402664795735967</v>
+      </c>
+      <c r="J6">
+        <v>0.3605020501868825</v>
+      </c>
+      <c r="K6">
+        <v>0.1883675048769441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.09077102139307387</v>
+        <v>0.08047252519728935</v>
       </c>
       <c r="C7">
-        <v>0.03765579624974116</v>
+        <v>0.06080350747285684</v>
       </c>
       <c r="D7">
-        <v>-0.03874256534213925</v>
+        <v>-0.02750223172157099</v>
       </c>
       <c r="E7">
-        <v>-0.02689487899072631</v>
+        <v>-0.02300553931296357</v>
       </c>
       <c r="F7">
-        <v>0.0204852221846067</v>
+        <v>0.03707693967873391</v>
       </c>
       <c r="G7">
-        <v>0.02175718064581312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01839723094897302</v>
+      </c>
+      <c r="H7">
+        <v>-0.0453152691936016</v>
+      </c>
+      <c r="I7">
+        <v>0.01861834602552536</v>
+      </c>
+      <c r="J7">
+        <v>-0.01446665883987644</v>
+      </c>
+      <c r="K7">
+        <v>-0.03082341049885021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04325431467277509</v>
+        <v>0.05252339098230555</v>
       </c>
       <c r="C8">
-        <v>-0.02890444639655516</v>
+        <v>0.009690576918088983</v>
       </c>
       <c r="D8">
-        <v>-0.08272129670782186</v>
+        <v>-0.01275306816077903</v>
       </c>
       <c r="E8">
-        <v>-0.08636771681225956</v>
+        <v>-0.006522049480420675</v>
       </c>
       <c r="F8">
-        <v>-0.03376030532668878</v>
+        <v>0.006948531206386603</v>
       </c>
       <c r="G8">
-        <v>0.1327835977610705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.09576465339038318</v>
+      </c>
+      <c r="H8">
+        <v>-0.113332880286451</v>
+      </c>
+      <c r="I8">
+        <v>-0.01278949971133163</v>
+      </c>
+      <c r="J8">
+        <v>0.02923812881076149</v>
+      </c>
+      <c r="K8">
+        <v>0.008554583862297566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.09415395601673995</v>
+        <v>0.0890055813192147</v>
       </c>
       <c r="C9">
-        <v>0.03805319178112809</v>
+        <v>0.05290875618524528</v>
       </c>
       <c r="D9">
-        <v>-0.03681147550484333</v>
+        <v>-0.007823671017066844</v>
       </c>
       <c r="E9">
-        <v>-0.04561040822919125</v>
+        <v>-0.01808516093731753</v>
       </c>
       <c r="F9">
-        <v>-0.02364539580926736</v>
+        <v>0.009505354473638461</v>
       </c>
       <c r="G9">
-        <v>0.07117705054983495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06088196764315053</v>
+      </c>
+      <c r="H9">
+        <v>-0.1169407412151781</v>
+      </c>
+      <c r="I9">
+        <v>0.00473437799249112</v>
+      </c>
+      <c r="J9">
+        <v>0.008124479881072771</v>
+      </c>
+      <c r="K9">
+        <v>0.01258923930632673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.03853991529750733</v>
+        <v>0.08630777183804252</v>
       </c>
       <c r="C10">
-        <v>-0.1603545827616373</v>
+        <v>-0.1770202425237337</v>
       </c>
       <c r="D10">
-        <v>-0.08879466599302831</v>
+        <v>0.02946996958549686</v>
       </c>
       <c r="E10">
-        <v>-0.0281883415704208</v>
+        <v>-0.03822914447342814</v>
       </c>
       <c r="F10">
-        <v>0.03192532257088942</v>
+        <v>0.05194908193019376</v>
       </c>
       <c r="G10">
-        <v>0.003648329790968198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.001412519954023009</v>
+      </c>
+      <c r="H10">
+        <v>0.003483455780614798</v>
+      </c>
+      <c r="I10">
+        <v>0.005215616371693483</v>
+      </c>
+      <c r="J10">
+        <v>0.03200736018093913</v>
+      </c>
+      <c r="K10">
+        <v>0.006360657215501582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.0766855527006805</v>
+        <v>0.07995071665731927</v>
       </c>
       <c r="C11">
-        <v>0.06118255083596085</v>
+        <v>0.06164273953036548</v>
       </c>
       <c r="D11">
-        <v>-0.01144506993511309</v>
+        <v>-0.01851295546740785</v>
       </c>
       <c r="E11">
-        <v>0.005942583722143197</v>
+        <v>-0.01882107541368748</v>
       </c>
       <c r="F11">
-        <v>-0.008858328161544825</v>
+        <v>-0.0207634870623616</v>
       </c>
       <c r="G11">
-        <v>0.1597229666620753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.07141640638818937</v>
+      </c>
+      <c r="H11">
+        <v>-0.1150590437831753</v>
+      </c>
+      <c r="I11">
+        <v>0.038777263657671</v>
+      </c>
+      <c r="J11">
+        <v>-0.1079213928749552</v>
+      </c>
+      <c r="K11">
+        <v>0.01097994556057366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07267181888682639</v>
+        <v>0.08090259332305463</v>
       </c>
       <c r="C12">
-        <v>0.03942261079842695</v>
+        <v>0.06830372797832027</v>
       </c>
       <c r="D12">
-        <v>-0.005041726727813854</v>
+        <v>-0.02902214661728333</v>
       </c>
       <c r="E12">
-        <v>-0.03486704169293341</v>
+        <v>-0.04192013029862682</v>
       </c>
       <c r="F12">
-        <v>0.007108122783440488</v>
+        <v>-0.02977876972246787</v>
       </c>
       <c r="G12">
-        <v>0.1482991493803742</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.09086966607245572</v>
+      </c>
+      <c r="H12">
+        <v>-0.09955070231211088</v>
+      </c>
+      <c r="I12">
+        <v>0.0529809525102872</v>
+      </c>
+      <c r="J12">
+        <v>-0.09008673858678803</v>
+      </c>
+      <c r="K12">
+        <v>-0.00715942369435791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.0647531872459641</v>
+        <v>0.04223375955917803</v>
       </c>
       <c r="C13">
-        <v>-0.000338243990458061</v>
+        <v>0.02519373003321192</v>
       </c>
       <c r="D13">
-        <v>-0.009422006332819137</v>
+        <v>-0.01648182648172401</v>
       </c>
       <c r="E13">
-        <v>-0.01786079951272925</v>
+        <v>0.00737564816091077</v>
       </c>
       <c r="F13">
-        <v>-0.04798260283958917</v>
+        <v>0.02022152259647069</v>
       </c>
       <c r="G13">
-        <v>0.05430155638979942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05214341571030993</v>
+      </c>
+      <c r="H13">
+        <v>-0.04656890820786983</v>
+      </c>
+      <c r="I13">
+        <v>0.0007061575272933414</v>
+      </c>
+      <c r="J13">
+        <v>0.06800696345539736</v>
+      </c>
+      <c r="K13">
+        <v>-0.01832674324606844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.05413448264707042</v>
+        <v>0.04173028165496011</v>
       </c>
       <c r="C14">
-        <v>0.005853659450819922</v>
+        <v>0.01604398018462162</v>
       </c>
       <c r="D14">
-        <v>-0.03408357479535797</v>
+        <v>0.01103557037936205</v>
       </c>
       <c r="E14">
-        <v>-0.02415540615647001</v>
+        <v>-0.01271154171370772</v>
       </c>
       <c r="F14">
-        <v>-0.02981196956121982</v>
+        <v>-0.006992791281668445</v>
       </c>
       <c r="G14">
-        <v>0.06094331881986614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04551141560328795</v>
+      </c>
+      <c r="H14">
+        <v>-0.05280770658907956</v>
+      </c>
+      <c r="I14">
+        <v>-0.04005850280998473</v>
+      </c>
+      <c r="J14">
+        <v>0.04743624396744658</v>
+      </c>
+      <c r="K14">
+        <v>0.03122547718474749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.03786415173821462</v>
+        <v>0.02357840928717125</v>
       </c>
       <c r="C15">
-        <v>-0.01095469770896039</v>
+        <v>0.004487545036152842</v>
       </c>
       <c r="D15">
-        <v>-0.01410715358520273</v>
+        <v>-0.007510644295962844</v>
       </c>
       <c r="E15">
-        <v>-0.003279404237326745</v>
+        <v>0.01585535042732815</v>
       </c>
       <c r="F15">
-        <v>-0.01611770748381621</v>
+        <v>0.03368858720731017</v>
       </c>
       <c r="G15">
-        <v>0.02420177882258622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01149673537046013</v>
+      </c>
+      <c r="H15">
+        <v>-0.008325959650563611</v>
+      </c>
+      <c r="I15">
+        <v>-0.01363361382834357</v>
+      </c>
+      <c r="J15">
+        <v>0.05617096241633916</v>
+      </c>
+      <c r="K15">
+        <v>0.008327039081465929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.07992394388015332</v>
+        <v>0.08567632458258115</v>
       </c>
       <c r="C16">
-        <v>0.0698576631034631</v>
+        <v>0.06960198714102073</v>
       </c>
       <c r="D16">
-        <v>-0.01906764317942511</v>
+        <v>-0.02524509697090349</v>
       </c>
       <c r="E16">
-        <v>-0.03258346093314423</v>
+        <v>-0.02420349637326919</v>
       </c>
       <c r="F16">
-        <v>-0.0428946200428734</v>
+        <v>-0.01823026097332514</v>
       </c>
       <c r="G16">
-        <v>0.1156746342446959</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.09849599296479807</v>
+      </c>
+      <c r="H16">
+        <v>-0.09926770277344278</v>
+      </c>
+      <c r="I16">
+        <v>0.05123117675619206</v>
+      </c>
+      <c r="J16">
+        <v>-0.1211320882834461</v>
+      </c>
+      <c r="K16">
+        <v>0.02147276835238826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.0511541805524779</v>
+        <v>0.04936651618730471</v>
       </c>
       <c r="C20">
-        <v>0.02373957430026005</v>
+        <v>0.03114465003544694</v>
       </c>
       <c r="D20">
-        <v>-0.01776284481557921</v>
+        <v>0.01344784281435095</v>
       </c>
       <c r="E20">
-        <v>-0.02362832571324657</v>
+        <v>0.001155869809530446</v>
       </c>
       <c r="F20">
-        <v>-0.009411355366175253</v>
+        <v>0.01723217222826792</v>
       </c>
       <c r="G20">
-        <v>0.1096267475286675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.03738888501259434</v>
+      </c>
+      <c r="H20">
+        <v>-0.05480748179112045</v>
+      </c>
+      <c r="I20">
+        <v>-0.02061703037905207</v>
+      </c>
+      <c r="J20">
+        <v>0.03366331175607743</v>
+      </c>
+      <c r="K20">
+        <v>0.008495440627106934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.02757513449606441</v>
+        <v>0.03003050030656277</v>
       </c>
       <c r="C21">
-        <v>0.03754862590066625</v>
+        <v>0.01875145940992618</v>
       </c>
       <c r="D21">
-        <v>0.003202186577282921</v>
+        <v>0.0291561524283209</v>
       </c>
       <c r="E21">
-        <v>-0.01967864001313329</v>
+        <v>0.01400300376614367</v>
       </c>
       <c r="F21">
-        <v>0.08380636224360853</v>
+        <v>-0.009248378708950702</v>
       </c>
       <c r="G21">
-        <v>-0.07705001154085779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04099848982747921</v>
+      </c>
+      <c r="H21">
+        <v>-0.07160899176284255</v>
+      </c>
+      <c r="I21">
+        <v>0.03691717582696775</v>
+      </c>
+      <c r="J21">
+        <v>0.07788074010491293</v>
+      </c>
+      <c r="K21">
+        <v>-0.06781923355865228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04211409578029522</v>
+        <v>0.03527774177415169</v>
       </c>
       <c r="C22">
-        <v>0.006691972765319871</v>
+        <v>0.001666690499008311</v>
       </c>
       <c r="D22">
-        <v>-0.002748569626534118</v>
+        <v>-0.08649535103212591</v>
       </c>
       <c r="E22">
-        <v>-0.5474142955442669</v>
+        <v>0.3417616179176634</v>
       </c>
       <c r="F22">
-        <v>-0.1294153181750781</v>
+        <v>0.5450784261901523</v>
       </c>
       <c r="G22">
-        <v>-0.3347387216187472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1281997058441511</v>
+      </c>
+      <c r="H22">
+        <v>0.1410480864589623</v>
+      </c>
+      <c r="I22">
+        <v>0.03692330320430661</v>
+      </c>
+      <c r="J22">
+        <v>-0.08064794687256061</v>
+      </c>
+      <c r="K22">
+        <v>0.002006184284609535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04222445831312786</v>
+        <v>0.03548343790426008</v>
       </c>
       <c r="C23">
-        <v>0.007222854504131157</v>
+        <v>0.002141636213842839</v>
       </c>
       <c r="D23">
-        <v>-0.004364526329009169</v>
+        <v>-0.08763777802296598</v>
       </c>
       <c r="E23">
-        <v>-0.5464585848268666</v>
+        <v>0.3430807645243277</v>
       </c>
       <c r="F23">
-        <v>-0.1299842795464193</v>
+        <v>0.5468489636154128</v>
       </c>
       <c r="G23">
-        <v>-0.3354351404249914</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1294054857111874</v>
+      </c>
+      <c r="H23">
+        <v>0.1374196089395227</v>
+      </c>
+      <c r="I23">
+        <v>0.03592229103878983</v>
+      </c>
+      <c r="J23">
+        <v>-0.07924968024508912</v>
+      </c>
+      <c r="K23">
+        <v>0.005744748747619002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08378626830021448</v>
+        <v>0.08757572172730639</v>
       </c>
       <c r="C24">
-        <v>0.04876564968994942</v>
+        <v>0.06127837868030848</v>
       </c>
       <c r="D24">
-        <v>-0.02514220908362191</v>
+        <v>-0.009974132491865685</v>
       </c>
       <c r="E24">
-        <v>-0.03598217045195878</v>
+        <v>-0.02283426344903402</v>
       </c>
       <c r="F24">
-        <v>-0.001172983436011331</v>
+        <v>-0.01237333094111513</v>
       </c>
       <c r="G24">
-        <v>0.1237269107409754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.08401001818103863</v>
+      </c>
+      <c r="H24">
+        <v>-0.0977102841575498</v>
+      </c>
+      <c r="I24">
+        <v>0.05351885081205461</v>
+      </c>
+      <c r="J24">
+        <v>-0.1287238176415461</v>
+      </c>
+      <c r="K24">
+        <v>0.04184633624683892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07551811969437727</v>
+        <v>0.08898112609721572</v>
       </c>
       <c r="C25">
-        <v>0.0204062183528053</v>
+        <v>0.04724543600786782</v>
       </c>
       <c r="D25">
-        <v>-0.0258216432128702</v>
+        <v>-0.02167941530333537</v>
       </c>
       <c r="E25">
-        <v>-0.02766567131894224</v>
+        <v>-0.04948633821568132</v>
       </c>
       <c r="F25">
-        <v>0.004648467353899203</v>
+        <v>-0.028679237114739</v>
       </c>
       <c r="G25">
-        <v>0.1172445157674938</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.0956271846574004</v>
+      </c>
+      <c r="H25">
+        <v>-0.08799299499069617</v>
+      </c>
+      <c r="I25">
+        <v>0.03573946600603746</v>
+      </c>
+      <c r="J25">
+        <v>-0.09331421597327422</v>
+      </c>
+      <c r="K25">
+        <v>0.008339300596623397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05084727880938009</v>
+        <v>0.04165698820175048</v>
       </c>
       <c r="C26">
-        <v>0.02529091244955267</v>
+        <v>-0.001218852502417056</v>
       </c>
       <c r="D26">
-        <v>-0.03301662707901247</v>
+        <v>0.01903237724573564</v>
       </c>
       <c r="E26">
-        <v>-0.01471493554064799</v>
+        <v>0.01829264500255196</v>
       </c>
       <c r="F26">
-        <v>-0.0172424609904672</v>
+        <v>0.003217219177103338</v>
       </c>
       <c r="G26">
-        <v>0.06411933812083695</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.04395214640904525</v>
+      </c>
+      <c r="H26">
+        <v>-0.03231247576895468</v>
+      </c>
+      <c r="I26">
+        <v>-0.02702593735587696</v>
+      </c>
+      <c r="J26">
+        <v>0.0402107067105303</v>
+      </c>
+      <c r="K26">
+        <v>0.02724773190370053</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.06197164929942645</v>
+        <v>0.09898904971305127</v>
       </c>
       <c r="C28">
-        <v>-0.2970249281121298</v>
+        <v>-0.3176904924381179</v>
       </c>
       <c r="D28">
-        <v>-0.05345080793521627</v>
+        <v>-0.01147398311687886</v>
       </c>
       <c r="E28">
-        <v>0.02638018172772591</v>
+        <v>-0.02221967936328387</v>
       </c>
       <c r="F28">
-        <v>0.05235666815113694</v>
+        <v>-0.003475445091732596</v>
       </c>
       <c r="G28">
-        <v>-0.02019340250222516</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02468381154110473</v>
+      </c>
+      <c r="H28">
+        <v>-0.01328455634094834</v>
+      </c>
+      <c r="I28">
+        <v>0.01492967539501796</v>
+      </c>
+      <c r="J28">
+        <v>-0.002598936372918156</v>
+      </c>
+      <c r="K28">
+        <v>-0.007190380616886288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05866389335724567</v>
+        <v>0.03860114567400901</v>
       </c>
       <c r="C29">
-        <v>0.006761672907413099</v>
+        <v>0.01431625356981674</v>
       </c>
       <c r="D29">
-        <v>-0.02799596359334432</v>
+        <v>-0.001197308542679803</v>
       </c>
       <c r="E29">
-        <v>-0.03932126781984622</v>
+        <v>-0.02902337904595649</v>
       </c>
       <c r="F29">
-        <v>-0.04490585450366438</v>
+        <v>0.00483343540627768</v>
       </c>
       <c r="G29">
-        <v>0.04159210490196435</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.08596464407969548</v>
+      </c>
+      <c r="H29">
+        <v>-0.0443284515921125</v>
+      </c>
+      <c r="I29">
+        <v>-0.02045029876958838</v>
+      </c>
+      <c r="J29">
+        <v>0.04330344643973068</v>
+      </c>
+      <c r="K29">
+        <v>0.04383613364213324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1125855838322329</v>
+        <v>0.1080817509325934</v>
       </c>
       <c r="C30">
-        <v>-0.0204968506226257</v>
+        <v>0.05105726792591224</v>
       </c>
       <c r="D30">
-        <v>-0.0811472540868271</v>
+        <v>-0.03953879382250502</v>
       </c>
       <c r="E30">
-        <v>-0.2063800058821686</v>
+        <v>0.008309913178676366</v>
       </c>
       <c r="F30">
-        <v>0.04990836305728912</v>
+        <v>-0.01823715587737107</v>
       </c>
       <c r="G30">
-        <v>0.1366195728241157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.1795640612254113</v>
+      </c>
+      <c r="H30">
+        <v>-0.1095838249633582</v>
+      </c>
+      <c r="I30">
+        <v>0.1888525466992334</v>
+      </c>
+      <c r="J30">
+        <v>0.008157186215534984</v>
+      </c>
+      <c r="K30">
+        <v>-0.02941488778052212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05817933892868087</v>
+        <v>0.03790676600780921</v>
       </c>
       <c r="C31">
-        <v>0.01609366903867425</v>
+        <v>0.02917970865546554</v>
       </c>
       <c r="D31">
-        <v>0.009881944069745192</v>
+        <v>-0.001748768710885547</v>
       </c>
       <c r="E31">
-        <v>-0.002379935276554532</v>
+        <v>0.003688899941726011</v>
       </c>
       <c r="F31">
-        <v>-0.03728166734071062</v>
+        <v>0.002086672025769813</v>
       </c>
       <c r="G31">
-        <v>0.004259441736826914</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01431302884423037</v>
+      </c>
+      <c r="H31">
+        <v>-0.02418914643580856</v>
+      </c>
+      <c r="I31">
+        <v>-0.03920011637027654</v>
+      </c>
+      <c r="J31">
+        <v>0.00251415452444234</v>
+      </c>
+      <c r="K31">
+        <v>0.05417675139525201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.04023435943770036</v>
+        <v>0.05437992456238122</v>
       </c>
       <c r="C32">
-        <v>-0.02205708975655934</v>
+        <v>-0.001252006882000578</v>
       </c>
       <c r="D32">
-        <v>-0.002405341393875683</v>
+        <v>0.01781305489392674</v>
       </c>
       <c r="E32">
-        <v>-0.07992301111497904</v>
+        <v>0.01016976990884275</v>
       </c>
       <c r="F32">
-        <v>-0.1425192400052359</v>
+        <v>-0.05818342907378705</v>
       </c>
       <c r="G32">
-        <v>0.03946855593185371</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02189298290118063</v>
+      </c>
+      <c r="H32">
+        <v>-0.0380430855465316</v>
+      </c>
+      <c r="I32">
+        <v>-0.002761505088290181</v>
+      </c>
+      <c r="J32">
+        <v>0.003981065958811035</v>
+      </c>
+      <c r="K32">
+        <v>0.01405712212443365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1106356880638992</v>
+        <v>0.1021834128550737</v>
       </c>
       <c r="C33">
-        <v>0.01733734948651617</v>
+        <v>0.05562099920129146</v>
       </c>
       <c r="D33">
-        <v>0.01066700176871615</v>
+        <v>-0.06916776265012051</v>
       </c>
       <c r="E33">
-        <v>-0.007184353925808255</v>
+        <v>-0.02487274224057976</v>
       </c>
       <c r="F33">
-        <v>-0.04171737017553789</v>
+        <v>-0.01864356879359224</v>
       </c>
       <c r="G33">
-        <v>0.06599068083583287</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03446764412817142</v>
+      </c>
+      <c r="H33">
+        <v>-0.05226265988495597</v>
+      </c>
+      <c r="I33">
+        <v>0.0008597238188721751</v>
+      </c>
+      <c r="J33">
+        <v>-0.02830827937183744</v>
+      </c>
+      <c r="K33">
+        <v>0.01610342031574399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.066732390549701</v>
+        <v>0.07329233152731833</v>
       </c>
       <c r="C34">
-        <v>0.0461338316797971</v>
+        <v>0.05543024546115892</v>
       </c>
       <c r="D34">
-        <v>-0.009765671009104904</v>
+        <v>-0.01628885385338793</v>
       </c>
       <c r="E34">
-        <v>-0.005931415372158501</v>
+        <v>-0.02467376783453587</v>
       </c>
       <c r="F34">
-        <v>-0.02907466401676579</v>
+        <v>-0.01880579218604576</v>
       </c>
       <c r="G34">
-        <v>0.09338738378149328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.08709444480821871</v>
+      </c>
+      <c r="H34">
+        <v>-0.09416779580607169</v>
+      </c>
+      <c r="I34">
+        <v>0.0332443514017817</v>
+      </c>
+      <c r="J34">
+        <v>-0.09425754180431334</v>
+      </c>
+      <c r="K34">
+        <v>0.00917887095333007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04552454041990529</v>
+        <v>0.02025896524457581</v>
       </c>
       <c r="C35">
-        <v>0.008039369393584834</v>
+        <v>0.014539754940676</v>
       </c>
       <c r="D35">
-        <v>0.01936241930738021</v>
+        <v>-0.005464931275717145</v>
       </c>
       <c r="E35">
-        <v>-0.01439644080868579</v>
+        <v>-0.00462905074433496</v>
       </c>
       <c r="F35">
-        <v>0.03974069360504555</v>
+        <v>-0.001988696202893553</v>
       </c>
       <c r="G35">
-        <v>0.05207240762500248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.05592687142341973</v>
+      </c>
+      <c r="H35">
+        <v>-0.02649421668082241</v>
+      </c>
+      <c r="I35">
+        <v>-0.00546041312924658</v>
+      </c>
+      <c r="J35">
+        <v>0.02163301814698286</v>
+      </c>
+      <c r="K35">
+        <v>-0.02874693960344468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03799307523736714</v>
+        <v>0.03054829394241782</v>
       </c>
       <c r="C36">
-        <v>0.003388993237322239</v>
+        <v>0.009356984189129187</v>
       </c>
       <c r="D36">
-        <v>-0.02120962543851266</v>
+        <v>-0.004870018581104063</v>
       </c>
       <c r="E36">
-        <v>-0.03169490056882197</v>
+        <v>0.008331920924166477</v>
       </c>
       <c r="F36">
-        <v>-0.01365572197051277</v>
+        <v>0.004895552437024959</v>
       </c>
       <c r="G36">
-        <v>0.05371000405612185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.04592029639957507</v>
+      </c>
+      <c r="H36">
+        <v>-0.05190712049341641</v>
+      </c>
+      <c r="I36">
+        <v>-0.00126569545763644</v>
+      </c>
+      <c r="J36">
+        <v>0.02898578672837394</v>
+      </c>
+      <c r="K36">
+        <v>0.02947106911919616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05564181410477614</v>
+        <v>0.02142772757134831</v>
       </c>
       <c r="C38">
-        <v>0.01654075949960011</v>
+        <v>0.01844088810908703</v>
       </c>
       <c r="D38">
-        <v>-0.00652359294119201</v>
+        <v>-0.01211159311382648</v>
       </c>
       <c r="E38">
-        <v>-0.008504325462959152</v>
+        <v>-1.770700626764017e-05</v>
       </c>
       <c r="F38">
-        <v>-0.0141778859477169</v>
+        <v>0.02378599129531058</v>
       </c>
       <c r="G38">
-        <v>0.0545970095397</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01452399657856745</v>
+      </c>
+      <c r="H38">
+        <v>0.04259094649763148</v>
+      </c>
+      <c r="I38">
+        <v>9.800481145098473e-05</v>
+      </c>
+      <c r="J38">
+        <v>0.01829287780849195</v>
+      </c>
+      <c r="K38">
+        <v>0.0472061684351657</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1089972192883733</v>
+        <v>0.1232405491679159</v>
       </c>
       <c r="C39">
-        <v>0.03864146196289574</v>
+        <v>0.08898404338295117</v>
       </c>
       <c r="D39">
-        <v>-0.009468467941760511</v>
+        <v>-0.0496407454188629</v>
       </c>
       <c r="E39">
-        <v>-0.0707931133452368</v>
+        <v>-0.07579614379113242</v>
       </c>
       <c r="F39">
-        <v>-0.01476095216639201</v>
+        <v>-0.07630780356427908</v>
       </c>
       <c r="G39">
-        <v>0.1429549091150593</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1304711358673101</v>
+      </c>
+      <c r="H39">
+        <v>-0.07961214872086518</v>
+      </c>
+      <c r="I39">
+        <v>0.06346648381196121</v>
+      </c>
+      <c r="J39">
+        <v>-0.1557018497667557</v>
+      </c>
+      <c r="K39">
+        <v>-0.06396581939328677</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.0513181848246162</v>
+        <v>0.02088981559082052</v>
       </c>
       <c r="C40">
-        <v>0.0221622257660068</v>
+        <v>0.03395403914262305</v>
       </c>
       <c r="D40">
-        <v>0.01863569505649762</v>
+        <v>0.002446879504438238</v>
       </c>
       <c r="E40">
-        <v>-0.106564738233606</v>
+        <v>0.03877121433890201</v>
       </c>
       <c r="F40">
-        <v>0.02529910406840136</v>
+        <v>0.05637551681861065</v>
       </c>
       <c r="G40">
-        <v>0.2383944183812464</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.06846524318787164</v>
+      </c>
+      <c r="H40">
+        <v>-0.0973023603742159</v>
+      </c>
+      <c r="I40">
+        <v>0.0627972913049972</v>
+      </c>
+      <c r="J40">
+        <v>0.06489480714545584</v>
+      </c>
+      <c r="K40">
+        <v>0.02685152673014179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.04807034450401013</v>
+        <v>0.03099323622883467</v>
       </c>
       <c r="C41">
-        <v>0.0285106129336305</v>
+        <v>0.01322968264670561</v>
       </c>
       <c r="D41">
-        <v>-0.001379277771519587</v>
+        <v>0.009820126668443448</v>
       </c>
       <c r="E41">
-        <v>0.01312119638640125</v>
+        <v>-0.01198946871882904</v>
       </c>
       <c r="F41">
-        <v>-0.02612227113048169</v>
+        <v>-0.002212884715133397</v>
       </c>
       <c r="G41">
-        <v>0.06349263370751289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01274361500817112</v>
+      </c>
+      <c r="H41">
+        <v>-0.01580885498751716</v>
+      </c>
+      <c r="I41">
+        <v>-0.01982892180542833</v>
+      </c>
+      <c r="J41">
+        <v>0.009033929947769711</v>
+      </c>
+      <c r="K41">
+        <v>0.03771545143672345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.07293089797286435</v>
+        <v>0.04722337919085018</v>
       </c>
       <c r="C43">
-        <v>0.02913941235714991</v>
+        <v>0.0180471462923245</v>
       </c>
       <c r="D43">
-        <v>-0.02057147254397464</v>
+        <v>-0.01462826191028844</v>
       </c>
       <c r="E43">
-        <v>-0.02104857346622217</v>
+        <v>-0.004456563705108577</v>
       </c>
       <c r="F43">
-        <v>-0.02275022022597382</v>
+        <v>0.01031920261230968</v>
       </c>
       <c r="G43">
-        <v>0.004766564001682883</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02943764308845546</v>
+      </c>
+      <c r="H43">
+        <v>-0.003231797732926622</v>
+      </c>
+      <c r="I43">
+        <v>-0.01136012730248005</v>
+      </c>
+      <c r="J43">
+        <v>0.0008408311626818748</v>
+      </c>
+      <c r="K43">
+        <v>0.0484565727946062</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.07384073185463277</v>
+        <v>0.1154790748974019</v>
       </c>
       <c r="C44">
-        <v>0.01722867369303301</v>
+        <v>0.09544590264413913</v>
       </c>
       <c r="D44">
-        <v>-0.09702947864929394</v>
+        <v>-0.04029865116252193</v>
       </c>
       <c r="E44">
-        <v>-0.0503017732950339</v>
+        <v>-0.01979746528354341</v>
       </c>
       <c r="F44">
-        <v>-0.0606278902462121</v>
+        <v>0.1118630164687332</v>
       </c>
       <c r="G44">
-        <v>0.09821071129419581</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.2260616051589273</v>
+      </c>
+      <c r="H44">
+        <v>-0.1285936308281927</v>
+      </c>
+      <c r="I44">
+        <v>0.127333237242908</v>
+      </c>
+      <c r="J44">
+        <v>0.01100715090088754</v>
+      </c>
+      <c r="K44">
+        <v>-0.02731757278046699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.04963948629940033</v>
+        <v>0.02785119947113328</v>
       </c>
       <c r="C46">
-        <v>0.03977641383753664</v>
+        <v>0.01115465804345672</v>
       </c>
       <c r="D46">
-        <v>-0.02733815887498532</v>
+        <v>-0.01193357623179905</v>
       </c>
       <c r="E46">
-        <v>-0.04824468796721767</v>
+        <v>0.0002757274425425456</v>
       </c>
       <c r="F46">
-        <v>-0.02573118442492539</v>
+        <v>0.04481905559067256</v>
       </c>
       <c r="G46">
-        <v>0.02979883280965183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05203217000161601</v>
+      </c>
+      <c r="H46">
+        <v>-0.02826042282659575</v>
+      </c>
+      <c r="I46">
+        <v>-0.01199735335485335</v>
+      </c>
+      <c r="J46">
+        <v>0.03959738388426952</v>
+      </c>
+      <c r="K46">
+        <v>0.01806011196722317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.04858281975477867</v>
+        <v>0.04091827884882589</v>
       </c>
       <c r="C47">
-        <v>-0.0006123678858559698</v>
+        <v>0.01620519266284735</v>
       </c>
       <c r="D47">
-        <v>-0.007833485019512525</v>
+        <v>-0.001398223162333594</v>
       </c>
       <c r="E47">
-        <v>-0.06247042736031092</v>
+        <v>0.008681806494292716</v>
       </c>
       <c r="F47">
-        <v>-0.003853821147702633</v>
+        <v>0.008388204463663394</v>
       </c>
       <c r="G47">
-        <v>-0.008558791691112431</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04531934272843988</v>
+      </c>
+      <c r="H47">
+        <v>-0.02709651382999678</v>
+      </c>
+      <c r="I47">
+        <v>-0.01748017579475663</v>
+      </c>
+      <c r="J47">
+        <v>0.04362765524337599</v>
+      </c>
+      <c r="K47">
+        <v>0.02037325670309233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.0439978665766394</v>
+        <v>0.03794106862261498</v>
       </c>
       <c r="C48">
-        <v>-0.00145175958092367</v>
+        <v>-0.000104283281640716</v>
       </c>
       <c r="D48">
-        <v>0.004996051625347858</v>
+        <v>-0.009222129275818359</v>
       </c>
       <c r="E48">
-        <v>-0.04020306371654665</v>
+        <v>0.001828551983122341</v>
       </c>
       <c r="F48">
-        <v>-0.00532207907171268</v>
+        <v>0.001661200156786222</v>
       </c>
       <c r="G48">
-        <v>0.04168045840052473</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.04939428859437077</v>
+      </c>
+      <c r="H48">
+        <v>-0.0410926751594676</v>
+      </c>
+      <c r="I48">
+        <v>-0.01702036033126304</v>
+      </c>
+      <c r="J48">
+        <v>0.04549564775450696</v>
+      </c>
+      <c r="K48">
+        <v>-0.02069001081887251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.2362263895181918</v>
+        <v>0.2312294840258312</v>
       </c>
       <c r="C49">
-        <v>0.08206002579628674</v>
+        <v>0.0355644035174924</v>
       </c>
       <c r="D49">
-        <v>-0.01947337975088325</v>
+        <v>0.05980877199071442</v>
       </c>
       <c r="E49">
-        <v>0.08708714030396016</v>
+        <v>-0.05782860403108395</v>
       </c>
       <c r="F49">
-        <v>0.1341393437299427</v>
+        <v>0.005104207239945963</v>
       </c>
       <c r="G49">
-        <v>-0.1031807907932071</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.2161053410993975</v>
+      </c>
+      <c r="H49">
+        <v>0.1593854633541779</v>
+      </c>
+      <c r="I49">
+        <v>0.2266057845358936</v>
+      </c>
+      <c r="J49">
+        <v>-0.2018188033375515</v>
+      </c>
+      <c r="K49">
+        <v>0.06558193192635065</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.05406624798940751</v>
+        <v>0.0426947238474151</v>
       </c>
       <c r="C50">
-        <v>0.01364357191333586</v>
+        <v>0.02260333934064045</v>
       </c>
       <c r="D50">
-        <v>0.001889025859782882</v>
+        <v>0.006882108669913847</v>
       </c>
       <c r="E50">
-        <v>-0.01838191787457045</v>
+        <v>0.003739068144194024</v>
       </c>
       <c r="F50">
-        <v>-0.0549009714787318</v>
+        <v>-0.0006488559702921459</v>
       </c>
       <c r="G50">
-        <v>0.00171724451053265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0414994366933937</v>
+      </c>
+      <c r="H50">
+        <v>-0.03296623182043198</v>
+      </c>
+      <c r="I50">
+        <v>-0.02198462235734723</v>
+      </c>
+      <c r="J50">
+        <v>0.008010950140469379</v>
+      </c>
+      <c r="K50">
+        <v>0.04811238836192969</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03808082348393521</v>
+        <v>0.01943197289097121</v>
       </c>
       <c r="C51">
-        <v>0.009908161644670755</v>
+        <v>-0.004131424624692644</v>
       </c>
       <c r="D51">
-        <v>-0.01762799636126268</v>
+        <v>-0.01358964354238375</v>
       </c>
       <c r="E51">
-        <v>0.01323348663499431</v>
+        <v>-0.01305986084754548</v>
       </c>
       <c r="F51">
-        <v>-0.01238789262655466</v>
+        <v>0.01567358705691382</v>
       </c>
       <c r="G51">
-        <v>-0.01557147461018023</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02800692034278296</v>
+      </c>
+      <c r="H51">
+        <v>0.004449911754106497</v>
+      </c>
+      <c r="I51">
+        <v>0.02346743563660289</v>
+      </c>
+      <c r="J51">
+        <v>-0.02508394118557383</v>
+      </c>
+      <c r="K51">
+        <v>0.01200690431655567</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.07577384896564948</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.04188251762198092</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.0006628190479450067</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.01663912509078012</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.01341071504343691</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.06018944433185314</v>
+      </c>
+      <c r="H52">
+        <v>0.0394007798243669</v>
+      </c>
+      <c r="I52">
+        <v>-0.1372922768690691</v>
+      </c>
+      <c r="J52">
+        <v>-0.01993025709701575</v>
+      </c>
+      <c r="K52">
+        <v>-0.05849312450698804</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.161950219519179</v>
+        <v>0.1634534473490645</v>
       </c>
       <c r="C53">
-        <v>-0.001853592675403363</v>
+        <v>0.02836505978141645</v>
       </c>
       <c r="D53">
-        <v>-0.01053022374152258</v>
+        <v>-0.009150653395631014</v>
       </c>
       <c r="E53">
-        <v>0.07577249635982572</v>
+        <v>-0.02228674191700366</v>
       </c>
       <c r="F53">
-        <v>-0.2334133326396981</v>
+        <v>0.01314141256120014</v>
       </c>
       <c r="G53">
-        <v>-0.0558976273183647</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.01257462332373255</v>
+      </c>
+      <c r="H53">
+        <v>0.1069364251419266</v>
+      </c>
+      <c r="I53">
+        <v>-0.2755264383074705</v>
+      </c>
+      <c r="J53">
+        <v>-0.02159686432700876</v>
+      </c>
+      <c r="K53">
+        <v>0.08680065202871422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.05431830249691037</v>
+        <v>0.05189310905514569</v>
       </c>
       <c r="C54">
-        <v>0.007246155736843117</v>
+        <v>0.02763849674032774</v>
       </c>
       <c r="D54">
-        <v>-0.02063367723799622</v>
+        <v>0.002578943308639677</v>
       </c>
       <c r="E54">
-        <v>-0.04190303799270544</v>
+        <v>0.011121834583284</v>
       </c>
       <c r="F54">
-        <v>-0.02078174972617832</v>
+        <v>0.02438306679039285</v>
       </c>
       <c r="G54">
-        <v>0.0682898043869002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0638614704709377</v>
+      </c>
+      <c r="H54">
+        <v>-0.1206221843560133</v>
+      </c>
+      <c r="I54">
+        <v>-0.04011814272428877</v>
+      </c>
+      <c r="J54">
+        <v>0.1202170890348419</v>
+      </c>
+      <c r="K54">
+        <v>0.008667605861408734</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09553631243156832</v>
+        <v>0.08741764404661437</v>
       </c>
       <c r="C55">
-        <v>0.01350171951572081</v>
+        <v>0.02677012066690895</v>
       </c>
       <c r="D55">
-        <v>-0.02090918370523349</v>
+        <v>-0.05238894496658796</v>
       </c>
       <c r="E55">
-        <v>0.02055003995556069</v>
+        <v>-0.03568599518206706</v>
       </c>
       <c r="F55">
-        <v>-0.1821114188103148</v>
+        <v>-0.005598999168729638</v>
       </c>
       <c r="G55">
-        <v>-0.008200114866805634</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0171400375748536</v>
+      </c>
+      <c r="H55">
+        <v>0.01771143698610645</v>
+      </c>
+      <c r="I55">
+        <v>-0.1663629795785684</v>
+      </c>
+      <c r="J55">
+        <v>-0.007338655314670001</v>
+      </c>
+      <c r="K55">
+        <v>0.04721416715132456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1631087256488776</v>
+        <v>0.1600717307649035</v>
       </c>
       <c r="C56">
-        <v>-0.0002496658214081478</v>
+        <v>0.0395652815001995</v>
       </c>
       <c r="D56">
-        <v>-0.0008766971971303949</v>
+        <v>-0.0181406855255445</v>
       </c>
       <c r="E56">
-        <v>0.0759205111614827</v>
+        <v>-0.04409099658265183</v>
       </c>
       <c r="F56">
-        <v>-0.2330981353782494</v>
+        <v>0.004226311449744171</v>
       </c>
       <c r="G56">
-        <v>-0.0584933520985527</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.04197582344207504</v>
+      </c>
+      <c r="H56">
+        <v>0.07207659114052889</v>
+      </c>
+      <c r="I56">
+        <v>-0.2139167404797348</v>
+      </c>
+      <c r="J56">
+        <v>-0.04235021931174848</v>
+      </c>
+      <c r="K56">
+        <v>0.1166604379594952</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02079311101084741</v>
+        <v>0.04021870109829597</v>
       </c>
       <c r="C58">
-        <v>0.06343590994680737</v>
+        <v>0.02996844856933785</v>
       </c>
       <c r="D58">
-        <v>0.01270797131253397</v>
+        <v>-0.01306445631051939</v>
       </c>
       <c r="E58">
-        <v>-0.2744963140489543</v>
+        <v>0.05553115735141621</v>
       </c>
       <c r="F58">
-        <v>0.3597341740138227</v>
+        <v>0.06181548751767424</v>
       </c>
       <c r="G58">
-        <v>0.1141455127887945</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1156977117059262</v>
+      </c>
+      <c r="H58">
+        <v>0.004577797436455456</v>
+      </c>
+      <c r="I58">
+        <v>0.08552752200926618</v>
+      </c>
+      <c r="J58">
+        <v>0.1151468471284727</v>
+      </c>
+      <c r="K58">
+        <v>-0.2192233574176157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1535849063547216</v>
+        <v>0.1740268661002615</v>
       </c>
       <c r="C59">
-        <v>-0.3867891360126749</v>
+        <v>-0.3019560242615215</v>
       </c>
       <c r="D59">
-        <v>-0.07134394263171756</v>
+        <v>-0.02986992094453647</v>
       </c>
       <c r="E59">
-        <v>0.06293626480808792</v>
+        <v>-0.05954481185046281</v>
       </c>
       <c r="F59">
-        <v>-0.01146017168018332</v>
+        <v>-0.01440212122872371</v>
       </c>
       <c r="G59">
-        <v>0.04474810558060636</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02334783100381116</v>
+      </c>
+      <c r="H59">
+        <v>-0.05458688737115978</v>
+      </c>
+      <c r="I59">
+        <v>-0.03139428928503102</v>
+      </c>
+      <c r="J59">
+        <v>-0.05928933179997207</v>
+      </c>
+      <c r="K59">
+        <v>0.02236943320012091</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2669968203507954</v>
+        <v>0.2753414427470094</v>
       </c>
       <c r="C60">
-        <v>0.06947029374686374</v>
+        <v>0.1431188792849305</v>
       </c>
       <c r="D60">
-        <v>-0.07274432759812322</v>
+        <v>0.04781055789334329</v>
       </c>
       <c r="E60">
-        <v>0.07897407618326475</v>
+        <v>-0.132346569042519</v>
       </c>
       <c r="F60">
-        <v>0.08625965515170146</v>
+        <v>0.03540025581027331</v>
       </c>
       <c r="G60">
-        <v>-0.1655400913117387</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04930610670893206</v>
+      </c>
+      <c r="H60">
+        <v>0.2239538763289941</v>
+      </c>
+      <c r="I60">
+        <v>0.2543497457272054</v>
+      </c>
+      <c r="J60">
+        <v>-0.03478828916940761</v>
+      </c>
+      <c r="K60">
+        <v>-0.009012840458680411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.09571332806551593</v>
+        <v>0.1115744711332284</v>
       </c>
       <c r="C61">
-        <v>0.01923193243893902</v>
+        <v>0.05368731629950785</v>
       </c>
       <c r="D61">
-        <v>-0.001178356205604502</v>
+        <v>-0.03158721241360879</v>
       </c>
       <c r="E61">
-        <v>-0.0200879523553521</v>
+        <v>-0.06376323501456257</v>
       </c>
       <c r="F61">
-        <v>-0.02285810328916459</v>
+        <v>-0.03422803479305467</v>
       </c>
       <c r="G61">
-        <v>0.06107778749586747</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.1123975557883429</v>
+      </c>
+      <c r="H61">
+        <v>-0.09995162993269378</v>
+      </c>
+      <c r="I61">
+        <v>-0.0005813449374390225</v>
+      </c>
+      <c r="J61">
+        <v>-0.1131401010303964</v>
+      </c>
+      <c r="K61">
+        <v>-0.01753262527482092</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1458905020640716</v>
+        <v>0.1546149245766814</v>
       </c>
       <c r="C62">
-        <v>0.02661217682596561</v>
+        <v>0.04312195572812835</v>
       </c>
       <c r="D62">
-        <v>0.03525489381406197</v>
+        <v>-0.02609956307512555</v>
       </c>
       <c r="E62">
-        <v>0.1463181068376298</v>
+        <v>-0.03499087860253434</v>
       </c>
       <c r="F62">
-        <v>-0.22699864439164</v>
+        <v>-0.01519897018709623</v>
       </c>
       <c r="G62">
-        <v>-0.01031948619281397</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.03085744737636412</v>
+      </c>
+      <c r="H62">
+        <v>0.09276729349030767</v>
+      </c>
+      <c r="I62">
+        <v>-0.2296613789494869</v>
+      </c>
+      <c r="J62">
+        <v>0.002778722926751602</v>
+      </c>
+      <c r="K62">
+        <v>0.07390564361035488</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.04258237410231012</v>
+        <v>0.03817610447455221</v>
       </c>
       <c r="C63">
-        <v>0.01862120218352013</v>
+        <v>0.001487469181315912</v>
       </c>
       <c r="D63">
-        <v>0.009794264622650857</v>
+        <v>-0.01064725328794397</v>
       </c>
       <c r="E63">
-        <v>-0.01137645278158473</v>
+        <v>0.02268594250736405</v>
       </c>
       <c r="F63">
-        <v>-0.02184002309635263</v>
+        <v>-0.01846037462778034</v>
       </c>
       <c r="G63">
-        <v>0.0412619613788942</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.02957685241663832</v>
+      </c>
+      <c r="H63">
+        <v>-0.0573589972230961</v>
+      </c>
+      <c r="I63">
+        <v>0.002138404352599876</v>
+      </c>
+      <c r="J63">
+        <v>0.01188062245106765</v>
+      </c>
+      <c r="K63">
+        <v>0.04285311326293501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1091382174205718</v>
+        <v>0.100142077021484</v>
       </c>
       <c r="C64">
-        <v>0.01251187896058828</v>
+        <v>0.0213383466413131</v>
       </c>
       <c r="D64">
-        <v>-0.03750792842714377</v>
+        <v>0.00542917853216628</v>
       </c>
       <c r="E64">
-        <v>-0.04235225877458303</v>
+        <v>-0.03527137457791735</v>
       </c>
       <c r="F64">
-        <v>0.01435480587246048</v>
+        <v>0.03790322176662634</v>
       </c>
       <c r="G64">
-        <v>0.05240603818923865</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05520548214285372</v>
+      </c>
+      <c r="H64">
+        <v>-0.04395996363019396</v>
+      </c>
+      <c r="I64">
+        <v>0.07903778634781664</v>
+      </c>
+      <c r="J64">
+        <v>0.006397222968081406</v>
+      </c>
+      <c r="K64">
+        <v>0.02209446038590778</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1161368273288063</v>
+        <v>0.116414927033359</v>
       </c>
       <c r="C65">
-        <v>0.03196833351187657</v>
+        <v>0.006247403062135602</v>
       </c>
       <c r="D65">
-        <v>-0.02300163424388034</v>
+        <v>0.005965246634718609</v>
       </c>
       <c r="E65">
-        <v>-0.06942153109285203</v>
+        <v>0.02983812789367047</v>
       </c>
       <c r="F65">
-        <v>0.2473530002328224</v>
+        <v>-0.01957167733747981</v>
       </c>
       <c r="G65">
-        <v>-0.1583034461358998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02987855964081249</v>
+      </c>
+      <c r="H65">
+        <v>0.0009745841474374581</v>
+      </c>
+      <c r="I65">
+        <v>0.2055674760900384</v>
+      </c>
+      <c r="J65">
+        <v>0.4720081447584749</v>
+      </c>
+      <c r="K65">
+        <v>0.2804805993411275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1603350292554651</v>
+        <v>0.1504016831393371</v>
       </c>
       <c r="C66">
-        <v>0.04738785070240342</v>
+        <v>0.1072850024480976</v>
       </c>
       <c r="D66">
-        <v>0.01670436634607651</v>
+        <v>-0.04209008594315809</v>
       </c>
       <c r="E66">
-        <v>-0.0236822917281635</v>
+        <v>-0.07692482715383175</v>
       </c>
       <c r="F66">
-        <v>-0.02978619517791858</v>
+        <v>-0.08287541546649567</v>
       </c>
       <c r="G66">
-        <v>0.2866437379823805</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.1204229518724197</v>
+      </c>
+      <c r="H66">
+        <v>-0.07497702232669716</v>
+      </c>
+      <c r="I66">
+        <v>0.08150486046354163</v>
+      </c>
+      <c r="J66">
+        <v>-0.2338372762403125</v>
+      </c>
+      <c r="K66">
+        <v>0.009970860935661647</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.1084378038540368</v>
+        <v>0.07921606764123659</v>
       </c>
       <c r="C67">
-        <v>0.03738881924989892</v>
+        <v>0.0507250840316331</v>
       </c>
       <c r="D67">
-        <v>-0.02189323697446165</v>
+        <v>-0.07777747484147553</v>
       </c>
       <c r="E67">
-        <v>0.01482460492676674</v>
+        <v>-0.02468977170095574</v>
       </c>
       <c r="F67">
-        <v>-0.02573268030920075</v>
+        <v>0.0217660106793425</v>
       </c>
       <c r="G67">
-        <v>0.04900617390596926</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.05953381185823266</v>
+      </c>
+      <c r="H67">
+        <v>0.01671074662132697</v>
+      </c>
+      <c r="I67">
+        <v>-0.01420542721955886</v>
+      </c>
+      <c r="J67">
+        <v>-0.0373777826239261</v>
+      </c>
+      <c r="K67">
+        <v>0.02382729149343009</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.04024508525436423</v>
+        <v>0.08324188797220303</v>
       </c>
       <c r="C68">
-        <v>-0.2940539134031062</v>
+        <v>-0.2850063132466343</v>
       </c>
       <c r="D68">
-        <v>-0.02744369051243402</v>
+        <v>-0.005227429869876624</v>
       </c>
       <c r="E68">
-        <v>0.009819890298224837</v>
+        <v>-0.008493473648619472</v>
       </c>
       <c r="F68">
-        <v>0.01327848563540833</v>
+        <v>-0.02546759203386202</v>
       </c>
       <c r="G68">
-        <v>-0.02318679803980354</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03753517708688586</v>
+      </c>
+      <c r="H68">
+        <v>-0.03080529778570277</v>
+      </c>
+      <c r="I68">
+        <v>0.00822286594204431</v>
+      </c>
+      <c r="J68">
+        <v>0.005491291810256762</v>
+      </c>
+      <c r="K68">
+        <v>0.002978980742635014</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.04829785047772448</v>
+        <v>0.03786990590011986</v>
       </c>
       <c r="C69">
-        <v>0.01250774484673872</v>
+        <v>0.004359867644175889</v>
       </c>
       <c r="D69">
-        <v>0.005640887674553662</v>
+        <v>-0.02684211888396461</v>
       </c>
       <c r="E69">
-        <v>-0.0004377101824346719</v>
+        <v>-0.008760162576716605</v>
       </c>
       <c r="F69">
-        <v>-0.003778887525586026</v>
+        <v>0.007072139226110877</v>
       </c>
       <c r="G69">
-        <v>0.01698588762057731</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0193929692128969</v>
+      </c>
+      <c r="H69">
+        <v>0.0006410284223773</v>
+      </c>
+      <c r="I69">
+        <v>-0.01090273008880726</v>
+      </c>
+      <c r="J69">
+        <v>0.01582730089665446</v>
+      </c>
+      <c r="K69">
+        <v>0.03386038770594717</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.07592749115315209</v>
+        <v>0.0454307965625364</v>
       </c>
       <c r="C70">
-        <v>0.005919037530373268</v>
+        <v>0.0003884215884906319</v>
       </c>
       <c r="D70">
-        <v>-0.03456155106428408</v>
+        <v>-0.03130138688120697</v>
       </c>
       <c r="E70">
-        <v>0.02320190710981286</v>
+        <v>-0.04694368546527905</v>
       </c>
       <c r="F70">
-        <v>0.05319277876283745</v>
+        <v>0.004055913513674958</v>
       </c>
       <c r="G70">
-        <v>-0.0106788993089241</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.01165625423654239</v>
+      </c>
+      <c r="H70">
+        <v>-0.01500111839974873</v>
+      </c>
+      <c r="I70">
+        <v>0.00608354754137287</v>
+      </c>
+      <c r="J70">
+        <v>0.1675591405720765</v>
+      </c>
+      <c r="K70">
+        <v>-0.00219358311408437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.05076734385818689</v>
+        <v>0.09792477202687601</v>
       </c>
       <c r="C71">
-        <v>-0.2978474200177317</v>
+        <v>-0.2996929512662412</v>
       </c>
       <c r="D71">
-        <v>-0.04492695344439961</v>
+        <v>-0.007206292185424863</v>
       </c>
       <c r="E71">
-        <v>0.009104489921654437</v>
+        <v>-0.02631411595564367</v>
       </c>
       <c r="F71">
-        <v>0.01130255963165112</v>
+        <v>0.0004451861941059568</v>
       </c>
       <c r="G71">
-        <v>0.006956900475022117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.04560885694189312</v>
+      </c>
+      <c r="H71">
+        <v>-0.02319278463207305</v>
+      </c>
+      <c r="I71">
+        <v>0.01646000257799652</v>
+      </c>
+      <c r="J71">
+        <v>-0.02468564482308016</v>
+      </c>
+      <c r="K71">
+        <v>0.02018466201543103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1412037689920162</v>
+        <v>0.1444065785867069</v>
       </c>
       <c r="C72">
-        <v>-0.03661963129918003</v>
+        <v>-0.005096900574034047</v>
       </c>
       <c r="D72">
-        <v>0.2362273466853742</v>
+        <v>-0.01130497120941407</v>
       </c>
       <c r="E72">
-        <v>0.008818944725305165</v>
+        <v>0.0729935092090658</v>
       </c>
       <c r="F72">
-        <v>0.02897532570741277</v>
+        <v>-0.06641513111463089</v>
       </c>
       <c r="G72">
-        <v>0.08011340886542878</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.006100230844484612</v>
+      </c>
+      <c r="H72">
+        <v>0.02373602650574261</v>
+      </c>
+      <c r="I72">
+        <v>-0.03033374502061629</v>
+      </c>
+      <c r="J72">
+        <v>0.04173634580461462</v>
+      </c>
+      <c r="K72">
+        <v>0.1298911896570863</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2832702488509749</v>
+        <v>0.2438671957738462</v>
       </c>
       <c r="C73">
-        <v>0.1574195113297053</v>
+        <v>0.09256981555180389</v>
       </c>
       <c r="D73">
-        <v>-0.05938813269476634</v>
+        <v>-0.02443381728054807</v>
       </c>
       <c r="E73">
-        <v>0.145595455301246</v>
+        <v>-0.1612083916658145</v>
       </c>
       <c r="F73">
-        <v>0.3001666109573465</v>
+        <v>0.02157498790155837</v>
       </c>
       <c r="G73">
-        <v>-0.2740471461125972</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3074566110383811</v>
+      </c>
+      <c r="H73">
+        <v>0.2709589827114134</v>
+      </c>
+      <c r="I73">
+        <v>0.3098211443745766</v>
+      </c>
+      <c r="J73">
+        <v>-0.1011501914392827</v>
+      </c>
+      <c r="K73">
+        <v>-0.06550726502452489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.1016901940025868</v>
+        <v>0.1130292113127422</v>
       </c>
       <c r="C74">
-        <v>0.03361347765643417</v>
+        <v>0.0479243474383588</v>
       </c>
       <c r="D74">
-        <v>-0.001417511444391568</v>
+        <v>-0.02419466304132138</v>
       </c>
       <c r="E74">
-        <v>0.0305171539475008</v>
+        <v>-0.01159992221014689</v>
       </c>
       <c r="F74">
-        <v>-0.1078153412019597</v>
+        <v>0.001469374808611303</v>
       </c>
       <c r="G74">
-        <v>-0.03607437206396726</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.051559832337531</v>
+      </c>
+      <c r="H74">
+        <v>0.08503978546871192</v>
+      </c>
+      <c r="I74">
+        <v>-0.1088936382225737</v>
+      </c>
+      <c r="J74">
+        <v>-0.02390899582687435</v>
+      </c>
+      <c r="K74">
+        <v>0.09152734496259818</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.09407118331742483</v>
+        <v>0.1120501335710848</v>
       </c>
       <c r="C75">
-        <v>0.02011118448366365</v>
+        <v>0.04143386778696086</v>
       </c>
       <c r="D75">
-        <v>0.02544388242878553</v>
+        <v>-0.009930164052199751</v>
       </c>
       <c r="E75">
-        <v>0.04074205756393427</v>
+        <v>0.004527407148157559</v>
       </c>
       <c r="F75">
-        <v>-0.109072574886255</v>
+        <v>-0.009298905826573289</v>
       </c>
       <c r="G75">
-        <v>-0.057485673062648</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.004833187070424045</v>
+      </c>
+      <c r="H75">
+        <v>0.04202533912718189</v>
+      </c>
+      <c r="I75">
+        <v>-0.1588297549170539</v>
+      </c>
+      <c r="J75">
+        <v>-0.005410357069034055</v>
+      </c>
+      <c r="K75">
+        <v>0.03661932493698683</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1400674225610477</v>
+        <v>0.05458255190573473</v>
       </c>
       <c r="C76">
-        <v>0.02833071547937473</v>
+        <v>0.0137284006492242</v>
       </c>
       <c r="D76">
-        <v>-0.01611666763927233</v>
+        <v>-0.02930051179989085</v>
       </c>
       <c r="E76">
-        <v>0.01579637283243708</v>
+        <v>-0.02038349160013493</v>
       </c>
       <c r="F76">
-        <v>-0.2550685687454298</v>
+        <v>0.02387206674127867</v>
       </c>
       <c r="G76">
-        <v>-0.1017092059236836</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.04141087594333128</v>
+      </c>
+      <c r="H76">
+        <v>0.04232804309463714</v>
+      </c>
+      <c r="I76">
+        <v>-0.1275667940077256</v>
+      </c>
+      <c r="J76">
+        <v>-0.01481148310773763</v>
+      </c>
+      <c r="K76">
+        <v>0.08424944640889466</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08271432384453956</v>
+        <v>0.07679741694042941</v>
       </c>
       <c r="C77">
-        <v>-0.001302658647966525</v>
+        <v>0.03958753469509948</v>
       </c>
       <c r="D77">
-        <v>-0.04419430829411182</v>
+        <v>0.01499852186948513</v>
       </c>
       <c r="E77">
-        <v>-0.1133330699111152</v>
+        <v>-0.01647900625582583</v>
       </c>
       <c r="F77">
-        <v>0.1999182929832365</v>
+        <v>0.03824297735822488</v>
       </c>
       <c r="G77">
-        <v>0.1734694663003993</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08834407132149558</v>
+      </c>
+      <c r="H77">
+        <v>-0.2045046163226179</v>
+      </c>
+      <c r="I77">
+        <v>0.1068946433179456</v>
+      </c>
+      <c r="J77">
+        <v>0.1168865644121831</v>
+      </c>
+      <c r="K77">
+        <v>0.06795899911843863</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.2174164973276441</v>
+        <v>0.1528518686265136</v>
       </c>
       <c r="C78">
-        <v>0.06256601535598251</v>
+        <v>0.07886005122242437</v>
       </c>
       <c r="D78">
-        <v>-0.07362932390413032</v>
+        <v>-0.100827197708198</v>
       </c>
       <c r="E78">
-        <v>-0.1981059183895069</v>
+        <v>0.2000070647091254</v>
       </c>
       <c r="F78">
-        <v>0.02131274479132789</v>
+        <v>0.1610996567550309</v>
       </c>
       <c r="G78">
-        <v>0.1580115541426182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.6424940920779429</v>
+      </c>
+      <c r="H78">
+        <v>-0.5866451061567106</v>
+      </c>
+      <c r="I78">
+        <v>-0.1782221994543317</v>
+      </c>
+      <c r="J78">
+        <v>-0.08847733745056165</v>
+      </c>
+      <c r="K78">
+        <v>-0.07582828981910972</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1380961220358803</v>
+        <v>0.1364960215533908</v>
       </c>
       <c r="C79">
-        <v>0.01383879395253455</v>
+        <v>0.03992530433622682</v>
       </c>
       <c r="D79">
-        <v>0.006302174808995947</v>
+        <v>0.007261828170339804</v>
       </c>
       <c r="E79">
-        <v>0.03637043366815584</v>
+        <v>-0.01433624879716243</v>
       </c>
       <c r="F79">
-        <v>-0.1589048642520617</v>
+        <v>-0.003035503144297473</v>
       </c>
       <c r="G79">
-        <v>-0.001441537052188102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.02675977253285933</v>
+      </c>
+      <c r="H79">
+        <v>0.05154170342729344</v>
+      </c>
+      <c r="I79">
+        <v>-0.1545647352059704</v>
+      </c>
+      <c r="J79">
+        <v>-0.01647301446954146</v>
+      </c>
+      <c r="K79">
+        <v>0.1144089738454424</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.0335436207971233</v>
+        <v>0.06887011938256729</v>
       </c>
       <c r="C80">
-        <v>0.009383418942220351</v>
+        <v>0.04704599373790059</v>
       </c>
       <c r="D80">
-        <v>-0.0196350122213864</v>
+        <v>-0.04612744842424094</v>
       </c>
       <c r="E80">
-        <v>0.02936042660193326</v>
+        <v>-0.04823936864489464</v>
       </c>
       <c r="F80">
-        <v>0.0255707979846216</v>
+        <v>-0.0238690333238528</v>
       </c>
       <c r="G80">
-        <v>0.07232754510902106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.03874281223328557</v>
+      </c>
+      <c r="H80">
+        <v>-0.08022845900363497</v>
+      </c>
+      <c r="I80">
+        <v>-0.0667559868935429</v>
+      </c>
+      <c r="J80">
+        <v>0.07632927887920808</v>
+      </c>
+      <c r="K80">
+        <v>-0.2160509511176007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1133546557281859</v>
+        <v>0.1331831327665466</v>
       </c>
       <c r="C81">
-        <v>0.00569932930849656</v>
+        <v>0.04623029243556772</v>
       </c>
       <c r="D81">
-        <v>-0.009488764516792883</v>
+        <v>-0.008704253121579778</v>
       </c>
       <c r="E81">
-        <v>0.02953500232669833</v>
+        <v>-0.01268232428488237</v>
       </c>
       <c r="F81">
-        <v>-0.1372075084275461</v>
+        <v>0.009049538869431715</v>
       </c>
       <c r="G81">
-        <v>-0.04057367550406289</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.04647258080227859</v>
+      </c>
+      <c r="H81">
+        <v>0.02929654220961249</v>
+      </c>
+      <c r="I81">
+        <v>-0.1433449234981992</v>
+      </c>
+      <c r="J81">
+        <v>-0.03605089630050872</v>
+      </c>
+      <c r="K81">
+        <v>0.07694342490362384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1130020978609146</v>
+        <v>0.1463722546619195</v>
       </c>
       <c r="C82">
-        <v>0.02327540764300142</v>
+        <v>0.03770638743433365</v>
       </c>
       <c r="D82">
-        <v>-0.04631657204750317</v>
+        <v>-0.01702241374788629</v>
       </c>
       <c r="E82">
-        <v>0.07305179011335244</v>
+        <v>-0.06114582195956489</v>
       </c>
       <c r="F82">
-        <v>-0.229321642553823</v>
+        <v>-0.007290404249480033</v>
       </c>
       <c r="G82">
-        <v>-0.007471124536385085</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.05144125489813729</v>
+      </c>
+      <c r="H82">
+        <v>0.1214766141897282</v>
+      </c>
+      <c r="I82">
+        <v>-0.2672282872259484</v>
+      </c>
+      <c r="J82">
+        <v>-0.07511258076336945</v>
+      </c>
+      <c r="K82">
+        <v>0.008571936109759263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.106628482373567</v>
+        <v>0.09712587231731032</v>
       </c>
       <c r="C83">
-        <v>0.05089489220510408</v>
+        <v>0.09566397591409864</v>
       </c>
       <c r="D83">
-        <v>-0.06265490318906371</v>
+        <v>0.01304106134339042</v>
       </c>
       <c r="E83">
-        <v>0.01616930936349732</v>
+        <v>0.002338019409592242</v>
       </c>
       <c r="F83">
-        <v>0.06256663404316941</v>
+        <v>0.00818953877970198</v>
       </c>
       <c r="G83">
-        <v>0.07347428267444357</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.06634614226001091</v>
+      </c>
+      <c r="H83">
+        <v>-0.08062263803761556</v>
+      </c>
+      <c r="I83">
+        <v>-0.01759871122177127</v>
+      </c>
+      <c r="J83">
+        <v>0.1872027529646922</v>
+      </c>
+      <c r="K83">
+        <v>-0.09444192898391754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.05115312904075975</v>
+        <v>0.06172605779929398</v>
       </c>
       <c r="C84">
-        <v>0.01630040520171172</v>
+        <v>-0.003444364672527123</v>
       </c>
       <c r="D84">
-        <v>0.05513007947020187</v>
+        <v>0.02327540084351474</v>
       </c>
       <c r="E84">
-        <v>-0.02731506400892222</v>
+        <v>-0.02694396483262939</v>
       </c>
       <c r="F84">
-        <v>-0.03975552790874166</v>
+        <v>-0.01459922526917743</v>
       </c>
       <c r="G84">
-        <v>-0.04252614051667231</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.0003643407922170036</v>
+      </c>
+      <c r="H84">
+        <v>0.01337798696956757</v>
+      </c>
+      <c r="I84">
+        <v>0.1342834296800239</v>
+      </c>
+      <c r="J84">
+        <v>-0.1960643452312734</v>
+      </c>
+      <c r="K84">
+        <v>-0.435310610399548</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1014080226800433</v>
+        <v>0.1195932785791768</v>
       </c>
       <c r="C85">
-        <v>0.02342653060151388</v>
+        <v>0.0335824292761979</v>
       </c>
       <c r="D85">
-        <v>-0.02315596183801892</v>
+        <v>-0.005098312780238348</v>
       </c>
       <c r="E85">
-        <v>0.03610945433383088</v>
+        <v>-0.03704677755999553</v>
       </c>
       <c r="F85">
-        <v>-0.190341915783674</v>
+        <v>0.01412221491154313</v>
       </c>
       <c r="G85">
-        <v>-0.0117883983665221</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.03283968283957484</v>
+      </c>
+      <c r="H85">
+        <v>0.03655281908824664</v>
+      </c>
+      <c r="I85">
+        <v>-0.1889905504839477</v>
+      </c>
+      <c r="J85">
+        <v>-0.02065016881376126</v>
+      </c>
+      <c r="K85">
+        <v>0.07956454254727321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06883572148783139</v>
+        <v>0.1329178902308124</v>
       </c>
       <c r="C86">
-        <v>0.02023842398808242</v>
+        <v>0.04170067073781597</v>
       </c>
       <c r="D86">
-        <v>-0.05683089907002719</v>
+        <v>0.9318441124028534</v>
       </c>
       <c r="E86">
-        <v>-0.05762144789372536</v>
+        <v>0.2007894464641649</v>
       </c>
       <c r="F86">
-        <v>-0.002452148184192469</v>
+        <v>0.002597157137600808</v>
       </c>
       <c r="G86">
-        <v>0.0978827261293158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04687669752797365</v>
+      </c>
+      <c r="H86">
+        <v>-0.05199340916073048</v>
+      </c>
+      <c r="I86">
+        <v>-0.07230742801439152</v>
+      </c>
+      <c r="J86">
+        <v>-0.02670542640183479</v>
+      </c>
+      <c r="K86">
+        <v>-0.09930355344261381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1022997479451438</v>
+        <v>0.1180584873877839</v>
       </c>
       <c r="C87">
-        <v>0.05690368737185183</v>
+        <v>0.09031968550452457</v>
       </c>
       <c r="D87">
-        <v>-0.02434590112771929</v>
+        <v>-0.00471039539251536</v>
       </c>
       <c r="E87">
-        <v>-0.0762029977879342</v>
+        <v>-0.0190313583878531</v>
       </c>
       <c r="F87">
-        <v>0.0449766194017245</v>
+        <v>0.02690701337687479</v>
       </c>
       <c r="G87">
-        <v>0.1097991365424853</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07884910440057702</v>
+      </c>
+      <c r="H87">
+        <v>-0.1090903479885961</v>
+      </c>
+      <c r="I87">
+        <v>0.03773453432137228</v>
+      </c>
+      <c r="J87">
+        <v>0.1716213859928685</v>
+      </c>
+      <c r="K87">
+        <v>-0.01500434740933023</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06956492970968782</v>
+        <v>0.05755113981134936</v>
       </c>
       <c r="C88">
-        <v>0.04033858361143569</v>
+        <v>0.03856462539636352</v>
       </c>
       <c r="D88">
-        <v>-0.01951808162394199</v>
+        <v>-0.01498042694152784</v>
       </c>
       <c r="E88">
-        <v>-0.01043769032648142</v>
+        <v>-0.04279142325737856</v>
       </c>
       <c r="F88">
-        <v>-0.01574005902743262</v>
+        <v>-0.02423827385379423</v>
       </c>
       <c r="G88">
-        <v>0.05379044664043603</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01971159873900925</v>
+      </c>
+      <c r="H88">
+        <v>-0.02189457891026673</v>
+      </c>
+      <c r="I88">
+        <v>0.001771036201470618</v>
+      </c>
+      <c r="J88">
+        <v>-0.003554514306270387</v>
+      </c>
+      <c r="K88">
+        <v>0.02775363333035061</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.09695438653922024</v>
+        <v>0.1487575233737562</v>
       </c>
       <c r="C89">
-        <v>-0.3792277645147206</v>
+        <v>-0.3740030706251251</v>
       </c>
       <c r="D89">
-        <v>-0.1035346550189102</v>
+        <v>-0.008329012475329039</v>
       </c>
       <c r="E89">
-        <v>-0.00990971089909308</v>
+        <v>-0.01735504938135614</v>
       </c>
       <c r="F89">
-        <v>0.02274254466740279</v>
+        <v>0.06693193401162302</v>
       </c>
       <c r="G89">
-        <v>-0.00487534390718187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.001213198677975369</v>
+      </c>
+      <c r="H89">
+        <v>-0.04453947630234761</v>
+      </c>
+      <c r="I89">
+        <v>0.01378909406804659</v>
+      </c>
+      <c r="J89">
+        <v>-0.004523898481139738</v>
+      </c>
+      <c r="K89">
+        <v>-0.07201761795322183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.07439971060324913</v>
+        <v>0.1137724030544044</v>
       </c>
       <c r="C90">
-        <v>-0.29310841735301</v>
+        <v>-0.2860842082386224</v>
       </c>
       <c r="D90">
-        <v>-0.0459448267414946</v>
+        <v>0.001019414417399327</v>
       </c>
       <c r="E90">
-        <v>-0.05007475280113885</v>
+        <v>-0.02872956454699148</v>
       </c>
       <c r="F90">
-        <v>0.03826569452566687</v>
+        <v>0.0007611748587914801</v>
       </c>
       <c r="G90">
-        <v>0.03825972536869125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04940771585303086</v>
+      </c>
+      <c r="H90">
+        <v>-0.03823973206857159</v>
+      </c>
+      <c r="I90">
+        <v>0.04720529736986733</v>
+      </c>
+      <c r="J90">
+        <v>-0.01364529863079939</v>
+      </c>
+      <c r="K90">
+        <v>-0.03329909198946582</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.08249848839872945</v>
+        <v>0.0840150718586903</v>
       </c>
       <c r="C91">
-        <v>0.01977341121859322</v>
+        <v>0.03635555526761321</v>
       </c>
       <c r="D91">
-        <v>-0.009710990902271807</v>
+        <v>0.01321537669884167</v>
       </c>
       <c r="E91">
-        <v>0.02325924059033283</v>
+        <v>-0.01573223399678055</v>
       </c>
       <c r="F91">
-        <v>-0.08267662678072246</v>
+        <v>0.0137495843900847</v>
       </c>
       <c r="G91">
-        <v>-0.06701161705031802</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.01412080888488253</v>
+      </c>
+      <c r="H91">
+        <v>0.04795069893448461</v>
+      </c>
+      <c r="I91">
+        <v>-0.1136612347502474</v>
+      </c>
+      <c r="J91">
+        <v>-0.003394817162398968</v>
+      </c>
+      <c r="K91">
+        <v>0.04195128682150703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.06938378282889976</v>
+        <v>0.1232299849901205</v>
       </c>
       <c r="C92">
-        <v>-0.344203188776767</v>
+        <v>-0.3378004467024868</v>
       </c>
       <c r="D92">
-        <v>-0.07051919219746633</v>
+        <v>-0.007219631470622025</v>
       </c>
       <c r="E92">
-        <v>-0.02202648276199617</v>
+        <v>-0.001119204420783797</v>
       </c>
       <c r="F92">
-        <v>0.04889660677233533</v>
+        <v>0.03637798806149933</v>
       </c>
       <c r="G92">
-        <v>-0.02174614585797091</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02104523678337077</v>
+      </c>
+      <c r="H92">
+        <v>-0.07237697678103047</v>
+      </c>
+      <c r="I92">
+        <v>-0.02006927199938489</v>
+      </c>
+      <c r="J92">
+        <v>-0.03350042920894093</v>
+      </c>
+      <c r="K92">
+        <v>-0.01829477906760943</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.08548192338519517</v>
+        <v>0.1184672173253054</v>
       </c>
       <c r="C93">
-        <v>-0.2975994606143308</v>
+        <v>-0.318115454379633</v>
       </c>
       <c r="D93">
-        <v>-0.03986381485839532</v>
+        <v>0.01777534615701044</v>
       </c>
       <c r="E93">
-        <v>-0.01611133881819833</v>
+        <v>-0.04784400753848009</v>
       </c>
       <c r="F93">
-        <v>0.02580251779660882</v>
+        <v>-0.01097280570442282</v>
       </c>
       <c r="G93">
-        <v>-0.01854324555811005</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04122865243193257</v>
+      </c>
+      <c r="H93">
+        <v>-0.0007345143681364124</v>
+      </c>
+      <c r="I93">
+        <v>0.01631771814634541</v>
+      </c>
+      <c r="J93">
+        <v>0.0002399168367353461</v>
+      </c>
+      <c r="K93">
+        <v>-0.02368163886520417</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.09464941177422916</v>
+        <v>0.127242961672458</v>
       </c>
       <c r="C94">
-        <v>0.04755616498911367</v>
+        <v>0.05139570297037851</v>
       </c>
       <c r="D94">
-        <v>0.009476585104018932</v>
+        <v>-0.03008966304553969</v>
       </c>
       <c r="E94">
-        <v>0.01436041672250611</v>
+        <v>-0.009190500652552802</v>
       </c>
       <c r="F94">
-        <v>-0.1376459429401001</v>
+        <v>0.01875737553079032</v>
       </c>
       <c r="G94">
-        <v>-0.06944194761193459</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.01121967107708937</v>
+      </c>
+      <c r="H94">
+        <v>0.08097414397583277</v>
+      </c>
+      <c r="I94">
+        <v>-0.1234937592453775</v>
+      </c>
+      <c r="J94">
+        <v>-0.04801403363504143</v>
+      </c>
+      <c r="K94">
+        <v>0.03928544109663089</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1286490848975991</v>
+        <v>0.1199348228747119</v>
       </c>
       <c r="C95">
-        <v>0.08037053942984444</v>
+        <v>0.05060642340716771</v>
       </c>
       <c r="D95">
-        <v>-0.06161562400039464</v>
+        <v>-0.0168016837107516</v>
       </c>
       <c r="E95">
-        <v>-0.07100494743888429</v>
+        <v>-0.02019082154463423</v>
       </c>
       <c r="F95">
-        <v>0.09108256705438916</v>
+        <v>0.06652171799458438</v>
       </c>
       <c r="G95">
-        <v>0.1353289210495069</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.008710619953680184</v>
+      </c>
+      <c r="H95">
+        <v>-0.1218667051912732</v>
+      </c>
+      <c r="I95">
+        <v>0.1649176470568139</v>
+      </c>
+      <c r="J95">
+        <v>0.05317612427906684</v>
+      </c>
+      <c r="K95">
+        <v>-0.08838211489580322</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.009706210414435323</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.001169768503172837</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0005801536823888213</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.005760306389912651</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.004091894523495797</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.0008176077616416558</v>
+      </c>
+      <c r="H96">
+        <v>-0.01679381245873604</v>
+      </c>
+      <c r="I96">
+        <v>0.01079170106056378</v>
+      </c>
+      <c r="J96">
+        <v>0.01371954433148196</v>
+      </c>
+      <c r="K96">
+        <v>0.02112646469009338</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.1939434619099549</v>
+        <v>0.1847705096776711</v>
       </c>
       <c r="C97">
-        <v>-0.1252583539526671</v>
+        <v>-0.009512177576737252</v>
       </c>
       <c r="D97">
-        <v>0.9070976144127069</v>
+        <v>-0.1759152269713484</v>
       </c>
       <c r="E97">
-        <v>-0.05194405113140393</v>
+        <v>0.7523741646653177</v>
       </c>
       <c r="F97">
-        <v>0.04973581623232056</v>
+        <v>-0.5439465017481863</v>
       </c>
       <c r="G97">
-        <v>0.02947004667304986</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03317206011217162</v>
+      </c>
+      <c r="H97">
+        <v>0.1143518504762873</v>
+      </c>
+      <c r="I97">
+        <v>0.08602095426211522</v>
+      </c>
+      <c r="J97">
+        <v>-0.05256787419579645</v>
+      </c>
+      <c r="K97">
+        <v>-0.01283001471529606</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.3199505373295437</v>
+        <v>0.2667038079570017</v>
       </c>
       <c r="C98">
-        <v>0.06298919365849882</v>
+        <v>0.03945964870658925</v>
       </c>
       <c r="D98">
-        <v>-0.04672766350552158</v>
+        <v>0.009674331752697003</v>
       </c>
       <c r="E98">
-        <v>0.2332899916869982</v>
+        <v>-0.02246967447072722</v>
       </c>
       <c r="F98">
-        <v>0.2347225357482463</v>
+        <v>0.04593017926890414</v>
       </c>
       <c r="G98">
-        <v>-0.2715489041440853</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.2623585175174607</v>
+      </c>
+      <c r="H98">
+        <v>0.2548438255728701</v>
+      </c>
+      <c r="I98">
+        <v>-0.07790671864634972</v>
+      </c>
+      <c r="J98">
+        <v>0.335664665940468</v>
+      </c>
+      <c r="K98">
+        <v>-0.2739412093806157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.08777030219913477</v>
+        <v>0.05505857646626437</v>
       </c>
       <c r="C99">
-        <v>0.02330572427566189</v>
+        <v>0.003833464036449696</v>
       </c>
       <c r="D99">
-        <v>-0.009222412716002258</v>
+        <v>-0.03312719789740246</v>
       </c>
       <c r="E99">
-        <v>0.01406504814694298</v>
+        <v>-0.001999954975170428</v>
       </c>
       <c r="F99">
-        <v>0.01198454441079859</v>
+        <v>0.02248341072320012</v>
       </c>
       <c r="G99">
-        <v>0.02376733192818045</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.01402035242116071</v>
+      </c>
+      <c r="H99">
+        <v>-0.01059118622534815</v>
+      </c>
+      <c r="I99">
+        <v>0.00626580763860207</v>
+      </c>
+      <c r="J99">
+        <v>-0.02355472400141469</v>
+      </c>
+      <c r="K99">
+        <v>0.05837213689649228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.02989021105847806</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.0385759561619902</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.1628714277650216</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.0222038896821267</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.05016282259332044</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.1460372251748677</v>
+      </c>
+      <c r="H100">
+        <v>0.05761537770534674</v>
+      </c>
+      <c r="I100">
+        <v>-0.2115790030875393</v>
+      </c>
+      <c r="J100">
+        <v>0.2244172922461357</v>
+      </c>
+      <c r="K100">
+        <v>-0.5766868277867708</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05891577152581424</v>
+        <v>0.03844248359031537</v>
       </c>
       <c r="C101">
-        <v>0.006354505738578286</v>
+        <v>0.01457740076719614</v>
       </c>
       <c r="D101">
-        <v>-0.02813929697067753</v>
+        <v>-0.001809015970385291</v>
       </c>
       <c r="E101">
-        <v>-0.03761316155013324</v>
+        <v>-0.02978699849683115</v>
       </c>
       <c r="F101">
-        <v>-0.04379363474607041</v>
+        <v>0.004154065964501803</v>
       </c>
       <c r="G101">
-        <v>0.04153063881686492</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.08304872847097129</v>
+      </c>
+      <c r="H101">
+        <v>-0.0440043357130909</v>
+      </c>
+      <c r="I101">
+        <v>-0.02296420342624166</v>
+      </c>
+      <c r="J101">
+        <v>0.04167908011691639</v>
+      </c>
+      <c r="K101">
+        <v>0.04089470795258446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
